--- a/3. 프로젝트_WBS(AI프로젝트).xlsx
+++ b/3. 프로젝트_WBS(AI프로젝트).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10027BABD671489A/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAB10E8B-74C6-44F3-87DD-238244DD887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2055D803-5274-41C2-8B6E-82FBA5A9A988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>Project</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>환경 구축 및 Yolo 테스트</t>
+  </si>
+  <si>
+    <t>코드</t>
   </si>
   <si>
     <t>3.1.2</t>
@@ -519,7 +522,7 @@
       <name val="Malgun Gothic"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +670,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFECFD55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2A8D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91FBFD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1154,6 +1169,15 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,71 +1193,125 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1271,95 +1349,44 @@
     <xf numFmtId="0" fontId="22" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,8 +1396,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF91FBFD"/>
+      <color rgb="FFB2A8D2"/>
+      <color rgb="FFA2B966"/>
       <color rgb="FFECFD55"/>
-      <color rgb="FFA2B966"/>
       <color rgb="FFD3ECF8"/>
       <color rgb="FFD8D8D8"/>
     </mruColors>
@@ -1587,8 +1616,8 @@
   <dimension ref="A1:AN1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="11" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <pane xSplit="9" ySplit="11" topLeftCell="V22" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AG32" sqref="AG32"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
     </sheetView>
@@ -1615,18 +1644,18 @@
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="23"/>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="67" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="49"/>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="67" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="55"/>
@@ -1665,18 +1694,18 @@
       <c r="A2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="67" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="67" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="55"/>
@@ -1715,18 +1744,18 @@
       <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="28"/>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="67" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="51"/>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="67" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="55"/>
@@ -1765,16 +1794,16 @@
       <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="67" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="52"/>
-      <c r="I4" s="73"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="55"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1811,14 +1840,14 @@
       <c r="A5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="53"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
       <c r="J5" s="55"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1853,14 +1882,14 @@
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
       <c r="A6" s="48"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="55"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1895,16 +1924,16 @@
     </row>
     <row r="7" spans="1:40" ht="18.75" customHeight="1">
       <c r="A7" s="48"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
       <c r="L7" s="55"/>
@@ -1938,263 +1967,263 @@
       <c r="AN7" s="38"/>
     </row>
     <row r="8" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="101" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="103" t="s">
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="122"/>
+      <c r="AG8" s="122"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="AM8" s="104"/>
+      <c r="AM8" s="125"/>
       <c r="AN8" s="46"/>
     </row>
     <row r="9" spans="1:40" ht="17.25" customHeight="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="101" t="s">
+      <c r="A9" s="114"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101" t="s">
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101" t="s">
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101" t="s">
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="101"/>
-      <c r="AI9" s="101"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="102" t="s">
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="122"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
+      <c r="AL9" s="123"/>
+      <c r="AM9" s="123"/>
       <c r="AN9" s="46"/>
     </row>
     <row r="10" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="114" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="118" t="s">
+      <c r="E10" s="102"/>
+      <c r="F10" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="120" t="s">
+      <c r="G10" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122" t="s">
+      <c r="H10" s="107"/>
+      <c r="I10" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="88">
         <v>3</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="88">
         <v>4</v>
       </c>
-      <c r="L10" s="90">
+      <c r="L10" s="88">
         <v>5</v>
       </c>
-      <c r="M10" s="90">
+      <c r="M10" s="88">
         <v>6</v>
       </c>
-      <c r="N10" s="90">
+      <c r="N10" s="88">
         <v>7</v>
       </c>
-      <c r="O10" s="90">
+      <c r="O10" s="88">
         <v>8</v>
       </c>
-      <c r="P10" s="87">
+      <c r="P10" s="126">
         <v>9</v>
       </c>
-      <c r="Q10" s="87">
+      <c r="Q10" s="126">
         <v>10</v>
       </c>
-      <c r="R10" s="87">
+      <c r="R10" s="126">
         <v>11</v>
       </c>
-      <c r="S10" s="87">
+      <c r="S10" s="126">
         <v>12</v>
       </c>
-      <c r="T10" s="87">
+      <c r="T10" s="126">
         <v>13</v>
       </c>
-      <c r="U10" s="87">
+      <c r="U10" s="126">
         <v>14</v>
       </c>
-      <c r="V10" s="89">
+      <c r="V10" s="127">
         <v>15</v>
       </c>
-      <c r="W10" s="89">
+      <c r="W10" s="127">
         <v>16</v>
       </c>
-      <c r="X10" s="85">
+      <c r="X10" s="129">
         <v>17</v>
       </c>
-      <c r="Y10" s="85">
+      <c r="Y10" s="129">
         <v>18</v>
       </c>
-      <c r="Z10" s="85">
+      <c r="Z10" s="129">
         <v>19</v>
       </c>
-      <c r="AA10" s="85">
+      <c r="AA10" s="129">
         <v>20</v>
       </c>
-      <c r="AB10" s="85">
+      <c r="AB10" s="129">
         <v>21</v>
       </c>
-      <c r="AC10" s="85">
+      <c r="AC10" s="129">
         <v>22</v>
       </c>
-      <c r="AD10" s="85">
+      <c r="AD10" s="129">
         <v>23</v>
       </c>
-      <c r="AE10" s="85">
+      <c r="AE10" s="129">
         <v>24</v>
       </c>
-      <c r="AF10" s="85">
+      <c r="AF10" s="129">
         <v>25</v>
       </c>
-      <c r="AG10" s="85">
+      <c r="AG10" s="129">
         <v>26</v>
       </c>
-      <c r="AH10" s="79">
+      <c r="AH10" s="130">
         <v>27</v>
       </c>
-      <c r="AI10" s="79">
+      <c r="AI10" s="130">
         <v>28</v>
       </c>
-      <c r="AJ10" s="79">
+      <c r="AJ10" s="130">
         <v>29</v>
       </c>
-      <c r="AK10" s="79">
+      <c r="AK10" s="130">
         <v>30</v>
       </c>
-      <c r="AL10" s="79">
+      <c r="AL10" s="130">
         <v>1</v>
       </c>
-      <c r="AM10" s="79">
+      <c r="AM10" s="130">
         <v>2</v>
       </c>
       <c r="AN10" s="46"/>
     </row>
     <row r="11" spans="1:40" ht="18" customHeight="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="119"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="116"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="80"/>
-      <c r="AI11" s="80"/>
-      <c r="AJ11" s="80"/>
-      <c r="AK11" s="80"/>
-      <c r="AL11" s="80"/>
-      <c r="AM11" s="80"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="128"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="128"/>
+      <c r="AH11" s="131"/>
+      <c r="AI11" s="131"/>
+      <c r="AJ11" s="131"/>
+      <c r="AK11" s="131"/>
+      <c r="AL11" s="131"/>
+      <c r="AM11" s="131"/>
       <c r="AN11" s="46"/>
     </row>
     <row r="12" spans="1:40" ht="16.5" customHeight="1">
@@ -2209,91 +2238,91 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="81"/>
-      <c r="AH12" s="81"/>
-      <c r="AI12" s="81"/>
-      <c r="AJ12" s="81"/>
-      <c r="AK12" s="81"/>
-      <c r="AL12" s="81"/>
-      <c r="AM12" s="81"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
       <c r="AN12" s="46"/>
     </row>
     <row r="13" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A13" s="68"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="78"/>
-      <c r="AM13" s="78"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="136"/>
+      <c r="AB13" s="136"/>
+      <c r="AC13" s="136"/>
+      <c r="AD13" s="136"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="136"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="136"/>
+      <c r="AJ13" s="136"/>
+      <c r="AK13" s="136"/>
+      <c r="AL13" s="136"/>
+      <c r="AM13" s="136"/>
       <c r="AN13" s="46"/>
     </row>
     <row r="14" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A14" s="131"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="107"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="9" t="s">
         <v>35</v>
       </c>
@@ -2306,7 +2335,7 @@
       <c r="H14" s="11">
         <v>45971</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="132" t="s">
         <v>36</v>
       </c>
       <c r="J14" s="13"/>
@@ -2342,12 +2371,12 @@
       <c r="AN14" s="46"/>
     </row>
     <row r="15" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A15" s="131"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="125" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
@@ -2360,7 +2389,7 @@
       <c r="H15" s="11">
         <v>45972</v>
       </c>
-      <c r="I15" s="75"/>
+      <c r="I15" s="133"/>
       <c r="J15" s="15"/>
       <c r="K15" s="29"/>
       <c r="L15" s="15"/>
@@ -2394,69 +2423,69 @@
       <c r="AN15" s="46"/>
     </row>
     <row r="16" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A16" s="68"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
-      <c r="AI16" s="78"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="136"/>
+      <c r="V16" s="136"/>
+      <c r="W16" s="136"/>
+      <c r="X16" s="136"/>
+      <c r="Y16" s="136"/>
+      <c r="Z16" s="136"/>
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="136"/>
+      <c r="AD16" s="136"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="136"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="136"/>
+      <c r="AJ16" s="136"/>
+      <c r="AK16" s="136"/>
+      <c r="AL16" s="136"/>
+      <c r="AM16" s="136"/>
       <c r="AN16" s="46"/>
     </row>
     <row r="17" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A17" s="123"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="125" t="s">
+      <c r="A17" s="98"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="107"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="128" t="s">
+      <c r="G17" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="107"/>
-      <c r="I17" s="69"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -2497,95 +2526,95 @@
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="71"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="57"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="81"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="81"/>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="81"/>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="81"/>
-      <c r="AL18" s="81"/>
-      <c r="AM18" s="81"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="99"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="99"/>
       <c r="AN18" s="46"/>
     </row>
     <row r="19" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="58"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="82"/>
-      <c r="AC19" s="82"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="82"/>
-      <c r="AI19" s="82"/>
-      <c r="AJ19" s="82"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="82"/>
-      <c r="AM19" s="82"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="137"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="137"/>
+      <c r="AH19" s="137"/>
+      <c r="AI19" s="137"/>
+      <c r="AJ19" s="137"/>
+      <c r="AK19" s="137"/>
+      <c r="AL19" s="137"/>
+      <c r="AM19" s="137"/>
       <c r="AN19" s="46"/>
     </row>
     <row r="20" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A20" s="110"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="125" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="107"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="9" t="s">
         <v>48</v>
       </c>
@@ -2634,58 +2663,58 @@
       <c r="AN20" s="46"/>
     </row>
     <row r="21" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A21" s="70"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
       <c r="I21" s="58"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="83"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="83"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="83"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83"/>
-      <c r="AE21" s="83"/>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="83"/>
-      <c r="AH21" s="83"/>
-      <c r="AI21" s="83"/>
-      <c r="AJ21" s="83"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="83"/>
-      <c r="AM21" s="83"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="138"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="138"/>
+      <c r="V21" s="138"/>
+      <c r="W21" s="138"/>
+      <c r="X21" s="138"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="138"/>
+      <c r="AA21" s="138"/>
+      <c r="AB21" s="138"/>
+      <c r="AC21" s="138"/>
+      <c r="AD21" s="138"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="138"/>
+      <c r="AG21" s="138"/>
+      <c r="AH21" s="138"/>
+      <c r="AI21" s="138"/>
+      <c r="AJ21" s="138"/>
+      <c r="AK21" s="138"/>
+      <c r="AL21" s="138"/>
+      <c r="AM21" s="138"/>
       <c r="AN21" s="46"/>
     </row>
     <row r="22" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="125" t="s">
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="107"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="9" t="s">
         <v>53</v>
       </c>
@@ -2696,7 +2725,7 @@
       <c r="H22" s="11">
         <v>45972</v>
       </c>
-      <c r="I22" s="69"/>
+      <c r="I22" s="72"/>
       <c r="J22" s="15"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -2730,12 +2759,12 @@
       <c r="AN22" s="46"/>
     </row>
     <row r="23" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A23" s="123"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="125" t="s">
+      <c r="A23" s="98"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="107"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="9" t="s">
         <v>55</v>
       </c>
@@ -2746,7 +2775,7 @@
       <c r="H23" s="11">
         <v>45972</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="72" t="s">
         <v>56</v>
       </c>
       <c r="J23" s="15"/>
@@ -2782,12 +2811,12 @@
       <c r="AN23" s="46"/>
     </row>
     <row r="24" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A24" s="123"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="125" t="s">
+      <c r="A24" s="98"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="107"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="9" t="s">
         <v>58</v>
       </c>
@@ -2798,7 +2827,7 @@
       <c r="H24" s="11">
         <v>45972</v>
       </c>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="72" t="s">
         <v>59</v>
       </c>
       <c r="J24" s="15"/>
@@ -2834,111 +2863,115 @@
       <c r="AN24" s="46"/>
     </row>
     <row r="25" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="81"/>
-      <c r="AC25" s="81"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="81"/>
-      <c r="AF25" s="81"/>
-      <c r="AG25" s="81"/>
-      <c r="AH25" s="81"/>
-      <c r="AI25" s="81"/>
-      <c r="AJ25" s="81"/>
-      <c r="AK25" s="81"/>
-      <c r="AL25" s="81"/>
-      <c r="AM25" s="81"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="99"/>
       <c r="AN25" s="46"/>
     </row>
     <row r="26" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A26" s="68"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="C26" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="78"/>
-      <c r="AC26" s="78"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="78"/>
-      <c r="AF26" s="78"/>
-      <c r="AG26" s="78"/>
-      <c r="AH26" s="78"/>
-      <c r="AI26" s="78"/>
-      <c r="AJ26" s="78"/>
-      <c r="AK26" s="78"/>
-      <c r="AL26" s="78"/>
-      <c r="AM26" s="78"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="136"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="136"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="136"/>
+      <c r="X26" s="136"/>
+      <c r="Y26" s="136"/>
+      <c r="Z26" s="136"/>
+      <c r="AA26" s="136"/>
+      <c r="AB26" s="136"/>
+      <c r="AC26" s="136"/>
+      <c r="AD26" s="136"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="136"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="136"/>
+      <c r="AJ26" s="136"/>
+      <c r="AK26" s="136"/>
+      <c r="AL26" s="136"/>
+      <c r="AM26" s="136"/>
       <c r="AN26" s="46"/>
     </row>
     <row r="27" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A27" s="123"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="112" t="s">
+      <c r="A27" s="98"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="67" t="s">
+      <c r="D27" s="79"/>
+      <c r="E27" s="70" t="s">
         <v>64</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="11">
         <v>45972</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="60"/>
+      <c r="H27" s="11">
+        <v>45985</v>
+      </c>
+      <c r="I27" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -2960,7 +2993,7 @@
       <c r="AB27" s="63"/>
       <c r="AC27" s="15"/>
       <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
+      <c r="AE27" s="74"/>
       <c r="AF27" s="14"/>
       <c r="AG27" s="14"/>
       <c r="AH27" s="56"/>
@@ -2972,14 +3005,14 @@
       <c r="AN27" s="46"/>
     </row>
     <row r="28" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A28" s="110"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="112" t="s">
-        <v>65</v>
+      <c r="A28" s="78"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80" t="s">
+        <v>66</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="67" t="s">
-        <v>66</v>
+      <c r="D28" s="79"/>
+      <c r="E28" s="70" t="s">
+        <v>67</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="11">
@@ -3005,10 +3038,10 @@
       <c r="Y28" s="20"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
+      <c r="AB28" s="75"/>
       <c r="AC28" s="15"/>
       <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
+      <c r="AE28" s="76"/>
       <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
       <c r="AH28" s="56"/>
@@ -3020,14 +3053,14 @@
       <c r="AN28" s="46"/>
     </row>
     <row r="29" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A29" s="110"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="112" t="s">
-        <v>67</v>
+      <c r="A29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80" t="s">
+        <v>68</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="67" t="s">
-        <v>68</v>
+      <c r="D29" s="79"/>
+      <c r="E29" s="70" t="s">
+        <v>69</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="11">
@@ -3056,7 +3089,7 @@
       <c r="AB29" s="20"/>
       <c r="AC29" s="15"/>
       <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
+      <c r="AE29" s="76"/>
       <c r="AF29" s="14"/>
       <c r="AG29" s="14"/>
       <c r="AH29" s="56"/>
@@ -3068,14 +3101,14 @@
       <c r="AN29" s="46"/>
     </row>
     <row r="30" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A30" s="110"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="112" t="s">
-        <v>69</v>
+      <c r="A30" s="78"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80" t="s">
+        <v>70</v>
       </c>
-      <c r="D30" s="107"/>
-      <c r="E30" s="67" t="s">
-        <v>70</v>
+      <c r="D30" s="79"/>
+      <c r="E30" s="70" t="s">
+        <v>71</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="11">
@@ -3104,7 +3137,7 @@
       <c r="AB30" s="63"/>
       <c r="AC30" s="15"/>
       <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
+      <c r="AE30" s="74"/>
       <c r="AF30" s="14"/>
       <c r="AG30" s="14"/>
       <c r="AH30" s="56"/>
@@ -3116,13 +3149,13 @@
       <c r="AN30" s="46"/>
     </row>
     <row r="31" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A31" s="110"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="112" t="s">
-        <v>71</v>
+      <c r="A31" s="78"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="80" t="s">
+        <v>72</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="67"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="15"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -3160,13 +3193,13 @@
       <c r="AN31" s="46"/>
     </row>
     <row r="32" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A32" s="110"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="112" t="s">
-        <v>72</v>
+      <c r="A32" s="78"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="80" t="s">
+        <v>73</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="67"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="15"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -3204,12 +3237,12 @@
       <c r="AN32" s="46"/>
     </row>
     <row r="33" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A33" s="110"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="112" t="s">
-        <v>73</v>
+      <c r="A33" s="78"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80" t="s">
+        <v>74</v>
       </c>
-      <c r="D33" s="107"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="21"/>
       <c r="F33" s="15"/>
       <c r="G33" s="11"/>
@@ -3250,58 +3283,58 @@
     <row r="34" spans="1:40" ht="16.5" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
-      <c r="AC34" s="84"/>
-      <c r="AD34" s="84"/>
-      <c r="AE34" s="84"/>
-      <c r="AF34" s="84"/>
-      <c r="AG34" s="84"/>
-      <c r="AH34" s="84"/>
-      <c r="AI34" s="84"/>
-      <c r="AJ34" s="84"/>
-      <c r="AK34" s="84"/>
-      <c r="AL34" s="84"/>
-      <c r="AM34" s="84"/>
-      <c r="AN34" s="46"/>
-    </row>
-    <row r="35" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A35" s="110"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="112" t="s">
+      <c r="C34" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="67" t="s">
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="110"/>
+      <c r="S34" s="110"/>
+      <c r="T34" s="110"/>
+      <c r="U34" s="110"/>
+      <c r="V34" s="110"/>
+      <c r="W34" s="110"/>
+      <c r="X34" s="110"/>
+      <c r="Y34" s="110"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="110"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="110"/>
+      <c r="AF34" s="110"/>
+      <c r="AG34" s="110"/>
+      <c r="AH34" s="110"/>
+      <c r="AI34" s="110"/>
+      <c r="AJ34" s="110"/>
+      <c r="AK34" s="110"/>
+      <c r="AL34" s="110"/>
+      <c r="AM34" s="110"/>
+      <c r="AN34" s="46"/>
+    </row>
+    <row r="35" spans="1:40" ht="16.5" customHeight="1">
+      <c r="A35" s="78"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="80" t="s">
         <v>77</v>
+      </c>
+      <c r="D35" s="79"/>
+      <c r="E35" s="70" t="s">
+        <v>78</v>
       </c>
       <c r="F35" s="65"/>
       <c r="G35" s="11">
@@ -3330,7 +3363,7 @@
       <c r="AB35" s="65"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="24"/>
-      <c r="AE35" s="14"/>
+      <c r="AE35" s="77"/>
       <c r="AF35" s="14"/>
       <c r="AG35" s="14"/>
       <c r="AH35" s="56"/>
@@ -3342,12 +3375,12 @@
       <c r="AN35" s="46"/>
     </row>
     <row r="36" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A36" s="110"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="112" t="s">
-        <v>78</v>
+      <c r="A36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80" t="s">
+        <v>79</v>
       </c>
-      <c r="D36" s="107"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="25"/>
       <c r="F36" s="15"/>
       <c r="G36" s="11"/>
@@ -3386,12 +3419,12 @@
       <c r="AN36" s="46"/>
     </row>
     <row r="37" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A37" s="110"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="112" t="s">
-        <v>79</v>
+      <c r="A37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="80" t="s">
+        <v>80</v>
       </c>
-      <c r="D37" s="107"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="26"/>
       <c r="F37" s="15"/>
       <c r="G37" s="11"/>
@@ -3432,58 +3465,58 @@
     <row r="38" spans="1:40" ht="16.5" customHeight="1">
       <c r="A38" s="42"/>
       <c r="B38" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="84"/>
-      <c r="R38" s="84"/>
-      <c r="S38" s="84"/>
-      <c r="T38" s="84"/>
-      <c r="U38" s="84"/>
-      <c r="V38" s="84"/>
-      <c r="W38" s="84"/>
-      <c r="X38" s="84"/>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="84"/>
-      <c r="AA38" s="84"/>
-      <c r="AB38" s="84"/>
-      <c r="AC38" s="84"/>
-      <c r="AD38" s="84"/>
-      <c r="AE38" s="84"/>
-      <c r="AF38" s="84"/>
-      <c r="AG38" s="84"/>
-      <c r="AH38" s="84"/>
-      <c r="AI38" s="84"/>
-      <c r="AJ38" s="84"/>
-      <c r="AK38" s="84"/>
-      <c r="AL38" s="84"/>
-      <c r="AM38" s="84"/>
-      <c r="AN38" s="46"/>
-    </row>
-    <row r="39" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="106" t="s">
+      <c r="C38" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="107"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="110"/>
+      <c r="R38" s="110"/>
+      <c r="S38" s="110"/>
+      <c r="T38" s="110"/>
+      <c r="U38" s="110"/>
+      <c r="V38" s="110"/>
+      <c r="W38" s="110"/>
+      <c r="X38" s="110"/>
+      <c r="Y38" s="110"/>
+      <c r="Z38" s="110"/>
+      <c r="AA38" s="110"/>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="110"/>
+      <c r="AD38" s="110"/>
+      <c r="AE38" s="110"/>
+      <c r="AF38" s="110"/>
+      <c r="AG38" s="110"/>
+      <c r="AH38" s="110"/>
+      <c r="AI38" s="110"/>
+      <c r="AJ38" s="110"/>
+      <c r="AK38" s="110"/>
+      <c r="AL38" s="110"/>
+      <c r="AM38" s="110"/>
+      <c r="AN38" s="46"/>
+    </row>
+    <row r="39" spans="1:40" ht="16.5" customHeight="1">
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="79"/>
       <c r="E39" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="11"/>
@@ -3522,12 +3555,12 @@
       <c r="AN39" s="46"/>
     </row>
     <row r="40" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A40" s="105"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="106" t="s">
-        <v>84</v>
+      <c r="A40" s="111"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="109" t="s">
+        <v>85</v>
       </c>
-      <c r="D40" s="107"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="30"/>
       <c r="F40" s="15"/>
       <c r="G40" s="11"/>
@@ -3566,12 +3599,12 @@
       <c r="AN40" s="46"/>
     </row>
     <row r="41" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="106" t="s">
-        <v>85</v>
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="109" t="s">
+        <v>86</v>
       </c>
-      <c r="D41" s="107"/>
+      <c r="D41" s="79"/>
       <c r="E41" s="31"/>
       <c r="F41" s="15"/>
       <c r="G41" s="11"/>
@@ -3610,58 +3643,58 @@
       <c r="AN41" s="46"/>
     </row>
     <row r="42" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A42" s="68"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84"/>
-      <c r="V42" s="84"/>
-      <c r="W42" s="84"/>
-      <c r="X42" s="84"/>
-      <c r="Y42" s="84"/>
-      <c r="Z42" s="84"/>
-      <c r="AA42" s="84"/>
-      <c r="AB42" s="84"/>
-      <c r="AC42" s="84"/>
-      <c r="AD42" s="84"/>
-      <c r="AE42" s="84"/>
-      <c r="AF42" s="84"/>
-      <c r="AG42" s="84"/>
-      <c r="AH42" s="84"/>
-      <c r="AI42" s="84"/>
-      <c r="AJ42" s="84"/>
-      <c r="AK42" s="84"/>
-      <c r="AL42" s="84"/>
-      <c r="AM42" s="84"/>
-      <c r="AN42" s="46"/>
-    </row>
-    <row r="43" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A43" s="110"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="111" t="s">
+      <c r="C42" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="107"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="110"/>
+      <c r="P42" s="110"/>
+      <c r="Q42" s="110"/>
+      <c r="R42" s="110"/>
+      <c r="S42" s="110"/>
+      <c r="T42" s="110"/>
+      <c r="U42" s="110"/>
+      <c r="V42" s="110"/>
+      <c r="W42" s="110"/>
+      <c r="X42" s="110"/>
+      <c r="Y42" s="110"/>
+      <c r="Z42" s="110"/>
+      <c r="AA42" s="110"/>
+      <c r="AB42" s="110"/>
+      <c r="AC42" s="110"/>
+      <c r="AD42" s="110"/>
+      <c r="AE42" s="110"/>
+      <c r="AF42" s="110"/>
+      <c r="AG42" s="110"/>
+      <c r="AH42" s="110"/>
+      <c r="AI42" s="110"/>
+      <c r="AJ42" s="110"/>
+      <c r="AK42" s="110"/>
+      <c r="AL42" s="110"/>
+      <c r="AM42" s="110"/>
+      <c r="AN42" s="46"/>
+    </row>
+    <row r="43" spans="1:40" ht="16.5" customHeight="1">
+      <c r="A43" s="78"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="79"/>
       <c r="E43" s="30"/>
       <c r="F43" s="15"/>
       <c r="G43" s="11"/>
@@ -3700,12 +3733,12 @@
       <c r="AN43" s="46"/>
     </row>
     <row r="44" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A44" s="110"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="111" t="s">
-        <v>89</v>
+      <c r="A44" s="78"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="84" t="s">
+        <v>90</v>
       </c>
-      <c r="D44" s="107"/>
+      <c r="D44" s="79"/>
       <c r="E44" s="30"/>
       <c r="F44" s="15"/>
       <c r="G44" s="11"/>
@@ -3744,12 +3777,12 @@
       <c r="AN44" s="46"/>
     </row>
     <row r="45" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A45" s="110"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="111" t="s">
-        <v>90</v>
+      <c r="A45" s="78"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="84" t="s">
+        <v>91</v>
       </c>
-      <c r="D45" s="107"/>
+      <c r="D45" s="79"/>
       <c r="E45" s="30"/>
       <c r="F45" s="15"/>
       <c r="G45" s="11"/>
@@ -3788,12 +3821,12 @@
       <c r="AN45" s="46"/>
     </row>
     <row r="46" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A46" s="110"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="111" t="s">
-        <v>91</v>
+      <c r="A46" s="78"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="84" t="s">
+        <v>92</v>
       </c>
-      <c r="D46" s="107"/>
+      <c r="D46" s="79"/>
       <c r="E46" s="31"/>
       <c r="F46" s="15"/>
       <c r="G46" s="11"/>
@@ -3832,58 +3865,58 @@
       <c r="AN46" s="46"/>
     </row>
     <row r="47" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A47" s="134" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="107"/>
-      <c r="C47" s="113" t="s">
+      <c r="A47" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76"/>
-      <c r="T47" s="76"/>
-      <c r="U47" s="76"/>
-      <c r="V47" s="76"/>
-      <c r="W47" s="76"/>
-      <c r="X47" s="76"/>
-      <c r="Y47" s="76"/>
-      <c r="Z47" s="76"/>
-      <c r="AA47" s="76"/>
-      <c r="AB47" s="76"/>
-      <c r="AC47" s="76"/>
-      <c r="AD47" s="76"/>
-      <c r="AE47" s="76"/>
-      <c r="AF47" s="76"/>
-      <c r="AG47" s="76"/>
-      <c r="AH47" s="76"/>
-      <c r="AI47" s="76"/>
-      <c r="AJ47" s="76"/>
-      <c r="AK47" s="76"/>
-      <c r="AL47" s="76"/>
-      <c r="AM47" s="76"/>
-      <c r="AN47" s="46"/>
-    </row>
-    <row r="48" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A48" s="110"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="111" t="s">
+      <c r="B47" s="79"/>
+      <c r="C47" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="107"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="134"/>
+      <c r="L47" s="134"/>
+      <c r="M47" s="134"/>
+      <c r="N47" s="134"/>
+      <c r="O47" s="134"/>
+      <c r="P47" s="134"/>
+      <c r="Q47" s="134"/>
+      <c r="R47" s="134"/>
+      <c r="S47" s="134"/>
+      <c r="T47" s="134"/>
+      <c r="U47" s="134"/>
+      <c r="V47" s="134"/>
+      <c r="W47" s="134"/>
+      <c r="X47" s="134"/>
+      <c r="Y47" s="134"/>
+      <c r="Z47" s="134"/>
+      <c r="AA47" s="134"/>
+      <c r="AB47" s="134"/>
+      <c r="AC47" s="134"/>
+      <c r="AD47" s="134"/>
+      <c r="AE47" s="134"/>
+      <c r="AF47" s="134"/>
+      <c r="AG47" s="134"/>
+      <c r="AH47" s="134"/>
+      <c r="AI47" s="134"/>
+      <c r="AJ47" s="134"/>
+      <c r="AK47" s="134"/>
+      <c r="AL47" s="134"/>
+      <c r="AM47" s="134"/>
+      <c r="AN47" s="46"/>
+    </row>
+    <row r="48" spans="1:40" ht="16.5" customHeight="1">
+      <c r="A48" s="78"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="79"/>
       <c r="E48" s="30"/>
       <c r="F48" s="15"/>
       <c r="G48" s="11"/>
@@ -3922,12 +3955,12 @@
       <c r="AN48" s="46"/>
     </row>
     <row r="49" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A49" s="110"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="111" t="s">
-        <v>95</v>
+      <c r="A49" s="78"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="84" t="s">
+        <v>96</v>
       </c>
-      <c r="D49" s="107"/>
+      <c r="D49" s="79"/>
       <c r="E49" s="30"/>
       <c r="F49" s="15"/>
       <c r="G49" s="11"/>
@@ -3966,103 +3999,103 @@
       <c r="AN49" s="46"/>
     </row>
     <row r="50" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A50" s="126" t="s">
-        <v>96</v>
+      <c r="A50" s="85" t="s">
+        <v>97</v>
       </c>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="107"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="79"/>
       <c r="F50" s="43"/>
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="77"/>
-      <c r="Q50" s="77"/>
-      <c r="R50" s="77"/>
-      <c r="S50" s="77"/>
-      <c r="T50" s="77"/>
-      <c r="U50" s="77"/>
-      <c r="V50" s="77"/>
-      <c r="W50" s="77"/>
-      <c r="X50" s="77"/>
-      <c r="Y50" s="77"/>
-      <c r="Z50" s="77"/>
-      <c r="AA50" s="77"/>
-      <c r="AB50" s="77"/>
-      <c r="AC50" s="77"/>
-      <c r="AD50" s="77"/>
-      <c r="AE50" s="77"/>
-      <c r="AF50" s="77"/>
-      <c r="AG50" s="77"/>
-      <c r="AH50" s="77"/>
-      <c r="AI50" s="77"/>
-      <c r="AJ50" s="77"/>
-      <c r="AK50" s="77"/>
-      <c r="AL50" s="77"/>
-      <c r="AM50" s="77"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
+      <c r="N50" s="135"/>
+      <c r="O50" s="135"/>
+      <c r="P50" s="135"/>
+      <c r="Q50" s="135"/>
+      <c r="R50" s="135"/>
+      <c r="S50" s="135"/>
+      <c r="T50" s="135"/>
+      <c r="U50" s="135"/>
+      <c r="V50" s="135"/>
+      <c r="W50" s="135"/>
+      <c r="X50" s="135"/>
+      <c r="Y50" s="135"/>
+      <c r="Z50" s="135"/>
+      <c r="AA50" s="135"/>
+      <c r="AB50" s="135"/>
+      <c r="AC50" s="135"/>
+      <c r="AD50" s="135"/>
+      <c r="AE50" s="135"/>
+      <c r="AF50" s="135"/>
+      <c r="AG50" s="135"/>
+      <c r="AH50" s="135"/>
+      <c r="AI50" s="135"/>
+      <c r="AJ50" s="135"/>
+      <c r="AK50" s="135"/>
+      <c r="AL50" s="135"/>
+      <c r="AM50" s="135"/>
       <c r="AN50" s="46"/>
     </row>
     <row r="51" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A51" s="68"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="78"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="78"/>
-      <c r="T51" s="78"/>
-      <c r="U51" s="78"/>
-      <c r="V51" s="78"/>
-      <c r="W51" s="78"/>
-      <c r="X51" s="78"/>
-      <c r="Y51" s="78"/>
-      <c r="Z51" s="78"/>
-      <c r="AA51" s="78"/>
-      <c r="AB51" s="78"/>
-      <c r="AC51" s="78"/>
-      <c r="AD51" s="78"/>
-      <c r="AE51" s="78"/>
-      <c r="AF51" s="78"/>
-      <c r="AG51" s="78"/>
-      <c r="AH51" s="78"/>
-      <c r="AI51" s="78"/>
-      <c r="AJ51" s="78"/>
-      <c r="AK51" s="78"/>
-      <c r="AL51" s="78"/>
-      <c r="AM51" s="78"/>
-      <c r="AN51" s="46"/>
-    </row>
-    <row r="52" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A52" s="110"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="112" t="s">
+      <c r="C51" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="107"/>
-      <c r="E52" s="67"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="136"/>
+      <c r="O51" s="136"/>
+      <c r="P51" s="136"/>
+      <c r="Q51" s="136"/>
+      <c r="R51" s="136"/>
+      <c r="S51" s="136"/>
+      <c r="T51" s="136"/>
+      <c r="U51" s="136"/>
+      <c r="V51" s="136"/>
+      <c r="W51" s="136"/>
+      <c r="X51" s="136"/>
+      <c r="Y51" s="136"/>
+      <c r="Z51" s="136"/>
+      <c r="AA51" s="136"/>
+      <c r="AB51" s="136"/>
+      <c r="AC51" s="136"/>
+      <c r="AD51" s="136"/>
+      <c r="AE51" s="136"/>
+      <c r="AF51" s="136"/>
+      <c r="AG51" s="136"/>
+      <c r="AH51" s="136"/>
+      <c r="AI51" s="136"/>
+      <c r="AJ51" s="136"/>
+      <c r="AK51" s="136"/>
+      <c r="AL51" s="136"/>
+      <c r="AM51" s="136"/>
+      <c r="AN51" s="46"/>
+    </row>
+    <row r="52" spans="1:40" ht="16.5" customHeight="1">
+      <c r="A52" s="78"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="79"/>
+      <c r="E52" s="70"/>
       <c r="F52" s="15"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -4100,12 +4133,12 @@
       <c r="AN52" s="46"/>
     </row>
     <row r="53" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A53" s="66"/>
+      <c r="A53" s="69"/>
       <c r="B53" s="32"/>
-      <c r="C53" s="112" t="s">
-        <v>100</v>
+      <c r="C53" s="80" t="s">
+        <v>101</v>
       </c>
-      <c r="D53" s="107"/>
+      <c r="D53" s="79"/>
       <c r="E53" s="21"/>
       <c r="F53" s="15"/>
       <c r="G53" s="11"/>
@@ -4144,12 +4177,12 @@
       <c r="AN53" s="46"/>
     </row>
     <row r="54" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A54" s="110"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="132" t="s">
-        <v>101</v>
+      <c r="A54" s="78"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="81" t="s">
+        <v>102</v>
       </c>
-      <c r="D54" s="133"/>
+      <c r="D54" s="82"/>
       <c r="E54" s="45"/>
       <c r="F54" s="15"/>
       <c r="G54" s="11"/>
@@ -4188,12 +4221,12 @@
       <c r="AN54" s="46"/>
     </row>
     <row r="55" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A55" s="110"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="132" t="s">
-        <v>102</v>
+      <c r="A55" s="78"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="81" t="s">
+        <v>103</v>
       </c>
-      <c r="D55" s="133"/>
+      <c r="D55" s="82"/>
       <c r="E55" s="45"/>
       <c r="F55" s="15"/>
       <c r="G55" s="11"/>
@@ -33886,20 +33919,105 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J47:AM47"/>
+    <mergeCell ref="J50:AM50"/>
+    <mergeCell ref="J51:AM51"/>
+    <mergeCell ref="AI10:AI11"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="AL10:AL11"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="J13:AM13"/>
+    <mergeCell ref="J16:AM16"/>
+    <mergeCell ref="J18:AM18"/>
+    <mergeCell ref="J19:AM19"/>
+    <mergeCell ref="J21:AM21"/>
+    <mergeCell ref="J25:AM25"/>
+    <mergeCell ref="J26:AM26"/>
+    <mergeCell ref="J34:AM34"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="J38:AM38"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="AF10:AF11"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="AD9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="W9:AC9"/>
+    <mergeCell ref="J42:AM42"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C20:D20"/>
@@ -33924,105 +34042,20 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="J12:AM12"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="J42:AM42"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A8:I9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="AD9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="W9:AC9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J47:AM47"/>
-    <mergeCell ref="J50:AM50"/>
-    <mergeCell ref="J51:AM51"/>
-    <mergeCell ref="AI10:AI11"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AL10:AL11"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="J13:AM13"/>
-    <mergeCell ref="J16:AM16"/>
-    <mergeCell ref="J18:AM18"/>
-    <mergeCell ref="J19:AM19"/>
-    <mergeCell ref="J21:AM21"/>
-    <mergeCell ref="J25:AM25"/>
-    <mergeCell ref="J26:AM26"/>
-    <mergeCell ref="J34:AM34"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="J38:AM38"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="C51:I51"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
